--- a/downloaded_files/GENS120_Lecture-35035.xlsx
+++ b/downloaded_files/GENS120_Lecture-35035.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Ahmed Abd Elhamid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عبدالله حسن عبدالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Abdallah</x:t>
   </x:si>
   <x:si>
     <x:t>1240286</x:t>
@@ -557,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +848,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1044,7 +1035,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45915.6092772801</x:v>
+        <x:v>45914.9498472569</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1076,7 +1067,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.9498472569</x:v>
+        <x:v>45914.9529314468</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1108,7 +1099,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.9529314468</x:v>
+        <x:v>45914.9539300116</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1140,7 +1131,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.9539300116</x:v>
+        <x:v>45915.6089339931</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1172,7 +1163,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.6089339931</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1204,7 +1195,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1236,7 +1227,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45915.608600544</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1268,7 +1259,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.608600544</x:v>
+        <x:v>45907.6660508102</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1300,7 +1291,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6660508102</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1332,7 +1323,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1364,7 +1355,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1396,7 +1387,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45915.6087208333</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1428,7 +1419,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.6087208333</x:v>
+        <x:v>45909.4150409375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1460,7 +1451,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4150409375</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1492,7 +1483,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45915.6040100347</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1524,7 +1515,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.6040100347</x:v>
+        <x:v>45915.6082797107</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1556,7 +1547,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.6082797107</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1588,7 +1579,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6682191319</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6682191319</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1684,7 +1675,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45914.948056794</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.948056794</x:v>
+        <x:v>45909.41596875</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.41596875</x:v>
+        <x:v>45909.414975</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.414975</x:v>
+        <x:v>45915.6085041319</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.6085041319</x:v>
+        <x:v>45915.6040576042</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.6040576042</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.6684555556</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6684555556</x:v>
+        <x:v>45909.4149671644</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1940,7 +1931,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4149671644</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1972,7 +1963,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2004,7 +1995,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2036,7 +2027,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2068,7 +2059,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45915.6088129282</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2100,7 +2091,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.6088129282</x:v>
+        <x:v>45914.9524029282</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2132,7 +2123,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.9524029282</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2164,7 +2155,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2196,7 +2187,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2224,11 +2215,9 @@
       <x:c r="C42" s="2" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45915.6039053241</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2251,14 +2240,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="s">
+      <x:c r="D43" s="2" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="D43" s="2" t="s"/>
       <x:c r="E43" s="3">
-        <x:v>45915.6039053241</x:v>
+        <x:v>45907.6692237616</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2290,7 +2281,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6692237616</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2322,7 +2313,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45915.6039544792</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2354,7 +2345,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.6039544792</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2371,38 +2362,6 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35035.xlsx
+++ b/downloaded_files/GENS120_Lecture-35035.xlsx
@@ -87,15 +87,6 @@
     <x:t>ِAwab Tamer Zakaria</x:t>
   </x:si>
   <x:si>
-    <x:t>1240038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بلال حمدى احمد حسين محمد احمد أبو طالب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belal Hamdy Ahmad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240220</x:t>
   </x:si>
   <x:si>
@@ -193,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Khaled Elameer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1240233</x:t>
@@ -1131,7 +1131,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.6089339931</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1163,7 +1163,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1195,7 +1195,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45915.608600544</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1227,7 +1227,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.608600544</x:v>
+        <x:v>45907.6660508102</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1259,7 +1259,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6660508102</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1291,7 +1291,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1323,7 +1323,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1355,7 +1355,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45915.6087208333</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1387,7 +1387,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.6087208333</x:v>
+        <x:v>45909.4150409375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1419,7 +1419,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4150409375</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1451,7 +1451,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45915.6040100347</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1483,7 +1483,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.6040100347</x:v>
+        <x:v>45927.4510722222</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -2059,7 +2059,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.6088129282</x:v>
+        <x:v>45927.4159827894</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35035.xlsx
+++ b/downloaded_files/GENS120_Lecture-35035.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -150,15 +150,6 @@
     <x:t>sara alaa mohamed abdelazim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى علاء حسين الشافعى حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Alaa Hussein Elshafey</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240077</x:t>
   </x:si>
   <x:si>
@@ -240,6 +231,15 @@
     <x:t>OmarAhmedWahbaAhmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر حاتم محمد محمود الفحل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hatem Mohamed Mahmoud Elfahl</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240107</x:t>
   </x:si>
   <x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240346</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فرح محمد عشري بخيت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farah Mohamed Ashry Bekhet</x:t>
   </x:si>
   <x:si>
     <x:t>1240119</x:t>
@@ -548,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -848,7 +857,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1355,7 +1364,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.6087208333</x:v>
+        <x:v>45909.4150409375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4150409375</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45915.6040100347</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.6040100347</x:v>
+        <x:v>45927.4510722222</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4510722222</x:v>
+        <x:v>45915.6082797107</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.6082797107</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6682191319</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6682191319</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45928.4794490741</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.665506794</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6684555556</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4149671644</x:v>
+        <x:v>45907.6684555556</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1931,7 +1940,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45909.4149671644</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1963,7 +1972,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1995,7 +2004,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2027,7 +2036,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2059,7 +2068,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45927.4159827894</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2091,7 +2100,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.9524029282</x:v>
+        <x:v>45927.4159827894</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2123,7 +2132,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45914.9524029282</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2155,7 +2164,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2187,7 +2196,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2215,9 +2224,11 @@
       <x:c r="C42" s="2" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s"/>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.6039053241</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2240,16 +2251,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
         <x:v>129</x:v>
       </x:c>
+      <x:c r="D43" s="2" t="s"/>
       <x:c r="E43" s="3">
-        <x:v>45907.6692237616</x:v>
+        <x:v>45915.6039053241</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2281,7 +2290,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.6692237616</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2313,7 +2322,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.6039544792</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2345,7 +2354,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45915.6039544792</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2362,6 +2371,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35035.xlsx
+++ b/downloaded_files/GENS120_Lecture-35035.xlsx
@@ -285,6 +285,15 @@
     <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
+    <x:t>1240112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد كمال خيرى السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar mohamed kamal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240346</x:t>
   </x:si>
   <x:si>
@@ -355,15 +364,6 @@
   </x:si>
   <x:si>
     <x:t>Marwan Walid Gamal el din Zaki Abou Shebika</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم سمير ماهر مسيحه صليب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Samir Maher Massiha</x:t>
   </x:si>
   <x:si>
     <x:t>1240372</x:t>
@@ -1844,7 +1844,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.665506794</x:v>
+        <x:v>45929.4742678241</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,7 +1876,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.665506794</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1908,7 +1908,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6684555556</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1940,7 +1940,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4149671644</x:v>
+        <x:v>45907.6684555556</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1972,7 +1972,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45909.4149671644</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2004,7 +2004,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2036,7 +2036,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2068,7 +2068,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2100,7 +2100,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45927.4159827894</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35035.xlsx
+++ b/downloaded_files/GENS120_Lecture-35035.xlsx
@@ -159,15 +159,6 @@
     <x:t>Shaza Ahmed Ahmed Abdelrazekِ</x:t>
   </x:si>
   <x:si>
-    <x:t>1240325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>طاهر محمود طاهر محمد يوسف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Taher Mahmoud Taher Mohamed Yousef</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240080</x:t>
   </x:si>
   <x:si>
@@ -424,6 +415,15 @@
   </x:si>
   <x:si>
     <x:t>Youanna Girgis Abdou Hendy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف خالد احمد عباس حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Khaled Ahmed Abbas Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240400</x:t>
@@ -1396,7 +1396,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45915.6040100347</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1428,7 +1428,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.6040100347</x:v>
+        <x:v>45927.4510722222</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1460,7 +1460,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4510722222</x:v>
+        <x:v>45915.6082797107</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1492,7 +1492,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.6082797107</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1524,7 +1524,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1556,7 +1556,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6682191319</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1588,7 +1588,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6682191319</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1620,7 +1620,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45928.4794490741</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1652,7 +1652,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45928.4794490741</x:v>
+        <x:v>45914.948056794</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1684,7 +1684,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.948056794</x:v>
+        <x:v>45909.41596875</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1716,7 +1716,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.41596875</x:v>
+        <x:v>45909.414975</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1748,7 +1748,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.414975</x:v>
+        <x:v>45915.6085041319</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1780,7 +1780,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.6085041319</x:v>
+        <x:v>45915.6040576042</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1812,7 +1812,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.6040576042</x:v>
+        <x:v>45929.4742678241</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1844,7 +1844,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45929.4742678241</x:v>
+        <x:v>45907.665506794</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,7 +1876,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.665506794</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1908,7 +1908,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.6684555556</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1940,7 +1940,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6684555556</x:v>
+        <x:v>45909.4149671644</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1972,7 +1972,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4149671644</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2004,7 +2004,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2036,7 +2036,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2068,7 +2068,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2100,7 +2100,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45914.9524029282</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2132,7 +2132,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.9524029282</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2164,7 +2164,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2196,7 +2196,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2224,11 +2224,9 @@
       <x:c r="C42" s="2" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45915.6039053241</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2251,14 +2249,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="s">
+      <x:c r="D43" s="2" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="D43" s="2" t="s"/>
       <x:c r="E43" s="3">
-        <x:v>45915.6039053241</x:v>
+        <x:v>45907.6692237616</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2290,7 +2290,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6692237616</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2322,7 +2322,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45930.398808912</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35035.xlsx
+++ b/downloaded_files/GENS120_Lecture-35035.xlsx
@@ -174,7 +174,7 @@
     <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+    <x:t>Abdelrahman Sayed Abdelraheem Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1240233</x:t>
